--- a/Translation Script/Map107.xlsx
+++ b/Translation Script/Map107.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="138">
   <si>
     <t>自動実行</t>
   </si>
@@ -29,6 +29,11 @@
     <t>水漏れしている・・・
 びしょ濡れになりたくないから
 出来るなら通りたくない・・・</t>
+  </si>
+  <si>
+    <t>Water is gushing out...
+You'd be drenched if you passed through,
+so you'd rather not if possible…</t>
   </si>
   <si>
     <t>変数203（ARGP攻撃種類）
@@ -41,7 +46,13 @@
     <t>カチコチに凍っている・・・</t>
   </si>
   <si>
+    <t>It's frozen solid…</t>
+  </si>
+  <si>
     <t>食糧庫ドア</t>
+  </si>
+  <si>
+    <t>Pantry door</t>
   </si>
   <si>
     <t>食堂の鍵を開けた！</t>
@@ -61,10 +72,17 @@
     <t>ゴミ捨て場の鍵を開けた！</t>
   </si>
   <si>
+    <t>Unlocked the dump!</t>
+  </si>
+  <si>
     <t>この先はゴミ捨て場のようだ・・・
 匂いが漏れてきている。</t>
   </si>
   <si>
+    <t>Looks like the garbage dump ahead...
+The stench is pouring out.</t>
+  </si>
+  <si>
     <t>報告書</t>
   </si>
   <si>
@@ -72,6 +90,10 @@
 新鮮な生ごみ。</t>
   </si>
   <si>
+    <t>Looks like a failed recipe...
+These scraps are still fresh.</t>
+  </si>
+  <si>
     <t>出現防止</t>
   </si>
   <si>
@@ -81,7 +103,13 @@
     <t>リラクゼーションの本だ・・・</t>
   </si>
   <si>
+    <t>A book on relaxation...</t>
+  </si>
+  <si>
     <t>\n[1]は\C[3]『休憩』\C[0]を覚えた！</t>
+  </si>
+  <si>
+    <t>\n[1] learned \C[3]『Rest』\C[0]!</t>
   </si>
   <si>
     <t>イベント用キャラ</t>
@@ -96,6 +124,11 @@
 あんなの食べたら精奴隷さんが死んじゃうよ！食材も勿体ないから見つけたら止めてね！</t>
   </si>
   <si>
+    <t>Do not let Shina do the cooking! The semen slaves will
+die if they are fed this! She's also wasting
+ingredients, so if you see her, stop her!</t>
+  </si>
+  <si>
     <t>EV014</t>
   </si>
   <si>
@@ -109,10 +142,17 @@
 一応武器として使えるかもしれない。</t>
   </si>
   <si>
+    <t>A fruit knife...
+Perhaps this could be used as a weapon.</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;みーつけた♥</t>
   </si>
   <si>
     <t>\n&lt;Lily&gt;みーつけた♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Fo-ound you♥</t>
   </si>
   <si>
     <t>\n&lt;リリー&gt;あら・・・
@@ -124,6 +164,10 @@
 果物ナイフなんか持っちゃって。危ないわねー。</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt;Ara...
+So you've found a fruit knife. Look out-.</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;そんな物騒なもの置いて？
 ねぇ、私と気持ちいいことしましょう♥
 ほら見て♥</t>
@@ -133,6 +177,10 @@
 ねぇ、私と気持ちいいことしましょう♥ほら見て♥</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt;Why don't you put down that dangerous little thing?
+Hey, why don't you do something fun with me♥ Look here♥</t>
+  </si>
+  <si>
     <t>ーーーーー待機or攻撃アニメ選択ーーーーー</t>
   </si>
   <si>
@@ -144,11 +192,21 @@
 見ちゃったわね♥</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt;Shake♥ Shake♥
+Ahaa♥
+You looked♥</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;あんたのそのレベルじゃ
 こーんなあからさまな誘惑でも
 おちんちんにきちゃうでしょ♥</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt;At your level, even a simple tease
+like this will drive
+your dick insane♥</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;ねぇ♥気持ちいい事しましょ？
 そんな小さなナイフなんて置いて♥</t>
   </si>
@@ -175,8 +233,17 @@
 ほら♥それなら大丈夫でしょ？くす♥</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt;It's nice, no? If you're so scared of a
+succubus sucking you dry, why not just pleasure yourself?
+Hora♥ That would be fine, wouldn't it? Hee♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;あはっ♥その気になってくれたぁ？
 じゃあ私のこと見ながらオナニーして見せて♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahaa♥ Does that sound like fun? Then look closely,
+and show me how you masturbate♥</t>
   </si>
   <si>
     <t>--------ここからクリア------------</t>
@@ -212,12 +279,25 @@
  Little succubus hunter♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;I hope you like it. 
+Show me more♥
+Little succubus hunter♥</t>
+  </si>
+  <si>
     <t>果物ナイフが置いてある・・・
 一本あれば十分だ。</t>
   </si>
   <si>
+    <t>Another fruit knife...
+Just one should be plenty.</t>
+  </si>
+  <si>
     <t>さくらんぼとチョコレートのケーキのレシピだ・・・
 美味しそう。</t>
+  </si>
+  <si>
+    <t>This is a recipe for a cherry and chocolate cake...
+It looks delicious.</t>
   </si>
   <si>
     <t>\n&lt;\n[1]&gt;（これ作ってくれるなら・・・
@@ -225,69 +305,133 @@
 なんて・・・）</t>
   </si>
   <si>
+    <t>\n&lt;\n[1]&gt;(If they'd make this for me...
+I wouldn't mind staying locked up
+one more day. If only...)</t>
+  </si>
+  <si>
     <t>ビンが割れている。
 アルコールの匂いがする・・・</t>
   </si>
   <si>
+    <t>This bottle is smashed.
+It smells like alcohol…</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;（勿体ない・・・）</t>
   </si>
   <si>
+    <t>\n&lt;\n[1]&gt;(Such a waste...)</t>
+  </si>
+  <si>
     <t>EV017</t>
   </si>
   <si>
     <t>リリーの日記</t>
+  </si>
+  <si>
+    <t>Lily's Diary</t>
   </si>
   <si>
     <t>リリーの日記
 ミスト屋敷襲撃</t>
   </si>
   <si>
+    <t>Lily's Diary
+Misty Mansion Attack</t>
+  </si>
+  <si>
     <t>読んでみる</t>
   </si>
   <si>
+    <t>Read</t>
+  </si>
+  <si>
     <t>やめておく</t>
   </si>
   <si>
+    <t>Stop reading</t>
+  </si>
+  <si>
     <t>EV019</t>
   </si>
   <si>
     <t>ニンニクとお肉。</t>
   </si>
   <si>
+    <t>Meat and garlic.</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;（料理をしている時間はないね。）</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;（This isn't the time to be cooking.）</t>
   </si>
   <si>
     <t>\n&lt;\n[1]&gt;（塩コショウとニンニクで焼くだけ。
 肉料理はこれで完成されている。あとは蛇足だ。）</t>
   </si>
   <si>
+    <t>\n&lt;\n[1]&gt;(Garlic, salt and pepper. Everything you need for a
+perfect meat dish. Anything else is just flashy nonsense.)</t>
+  </si>
+  <si>
     <t>調味料・・・</t>
   </si>
   <si>
+    <t>Spices…</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;（淫魔にコショウをかけてくしゃみをしている間に・・・）</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;（I'd probably sneeze while I sprinkle pepper\non the succubi...）</t>
   </si>
   <si>
     <t>\n&lt;\n[1]&gt;（・・・
 これは持っていく必要はないかな。）</t>
   </si>
   <si>
+    <t>\n&lt;\n[1]&gt;（...
+I'm not going to take anything.）</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;（料理は苦手だ・・・
 少々とか適量とか、それが分からないからレシピを見ているのに。）</t>
   </si>
   <si>
+    <t>\n&lt;\n[1]&gt;（I'm no good at cooking...
+I never know if I'm using too much or too litte, \nI'm always looking back at the recipe.）</t>
+  </si>
+  <si>
     <t>麦・・・</t>
   </si>
   <si>
+    <t>Flour...</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;（焼きたてのパンが食べたい・・・）</t>
   </si>
   <si>
+    <t>\n&lt;\n[1]&gt;（I would love some fresh baked bread about now...）</t>
+  </si>
+  <si>
     <t>お皿・・・</t>
   </si>
   <si>
+    <t>Plates...</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;（投げて武器にすることができるかも・・・）</t>
   </si>
   <si>
+    <t>\n&lt;\n[1]&gt;（I might be able to use this as a throwing weapon...）</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;（そんなアホな戦い方はしたくない。）</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;（I'd feel foolish fighting like that.）</t>
   </si>
   <si>
     <t>\n&lt;\n[1]&gt;（これをフリスビーのように投げれば・・・
@@ -295,25 +439,48 @@
 いや、やめておこう。）</t>
   </si>
   <si>
+    <t>\n&lt;\n[1]&gt;（I could throw these like a frisbee...
+...
+I'm gonna stop right there.）</t>
+  </si>
+  <si>
     <t>アイテム</t>
   </si>
   <si>
     <t>もう使えそうなものはない。</t>
   </si>
   <si>
+    <t>Nothing else useful.</t>
+  </si>
+  <si>
     <t>珍しい調味料が並んでいる・・・</t>
   </si>
   <si>
+    <t>Rare and unusual spices line the shelves…</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;（カルダモン・・・カレーに入れると美味しい。）</t>
   </si>
   <si>
+    <t>\n&lt;\n[1]&gt;（Cardamom... Delicious when added to curry.）</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;（カルダモン・・・？ゆるキャラか？）</t>
   </si>
   <si>
+    <t>\n&lt;\n[1]&gt;（Cardamom...? Is that a mascot?）</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;（バイマックル・・・カレーに入れると美味しい。）</t>
   </si>
   <si>
+    <t>\n&lt;\n[1]&gt;（Lime leaves... Amazing in curry.）</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;（バイマックル・・・？攻撃力が上がりそうだ。）</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;（Lime leaves...? Bet that would increase my attack.）</t>
   </si>
   <si>
     <t>立体起動</t>
@@ -326,13 +493,26 @@
 高くて手が届かない・・・</t>
   </si>
   <si>
+    <t>There's some kind of chest
+way up out of reach…</t>
+  </si>
+  <si>
     <t>もう何もない・・・</t>
   </si>
   <si>
+    <t>Nothing else useful…</t>
+  </si>
+  <si>
     <t>生ごみ・・・</t>
   </si>
   <si>
+    <t>Food scarps…</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;（う"ぇ"・・・）</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(Urrk...)</t>
   </si>
   <si>
     <t>EV036</t>
@@ -674,7 +854,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -682,7 +862,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -690,7 +870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -698,7 +878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -706,575 +886,746 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>43</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>47</v>
+      </c>
+      <c r="C29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>49</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>52</v>
+      </c>
+      <c r="C31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>54</v>
+      </c>
+      <c r="C32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>56</v>
+      </c>
+      <c r="C34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>58</v>
+      </c>
+      <c r="C35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>62</v>
+      </c>
+      <c r="C37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>64</v>
+      </c>
+      <c r="C38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>66</v>
+      </c>
+      <c r="C39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>68</v>
+      </c>
+      <c r="C40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>70</v>
+      </c>
+      <c r="C41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>72</v>
+      </c>
+      <c r="C42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>74</v>
+      </c>
+      <c r="C43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>76</v>
+      </c>
+      <c r="C44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>79</v>
+      </c>
+      <c r="C46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>81</v>
+      </c>
+      <c r="C47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>83</v>
+      </c>
+      <c r="C48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>85</v>
+      </c>
+      <c r="C49" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>88</v>
+      </c>
+      <c r="C51" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>90</v>
+      </c>
+      <c r="C52" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>92</v>
+      </c>
+      <c r="C53" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>94</v>
+      </c>
+      <c r="C54" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="B55" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>96</v>
+      </c>
+      <c r="C55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="B56" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>98</v>
+      </c>
+      <c r="C56" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="B57" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>100</v>
+      </c>
+      <c r="C57" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="B58" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>102</v>
+      </c>
+      <c r="C58" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="B59" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>104</v>
+      </c>
+      <c r="C59" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="B60" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>106</v>
+      </c>
+      <c r="C60" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="B61" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>108</v>
+      </c>
+      <c r="C61" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="B62" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>110</v>
+      </c>
+      <c r="C62" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="B63" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>112</v>
+      </c>
+      <c r="C63" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="B64" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="B65" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>115</v>
+      </c>
+      <c r="C65" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="B66" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>117</v>
+      </c>
+      <c r="C66" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="B67" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>119</v>
+      </c>
+      <c r="C67" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="B68" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>121</v>
+      </c>
+      <c r="C68" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="B69" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>123</v>
+      </c>
+      <c r="C69" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="B70" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>125</v>
+      </c>
+      <c r="C70" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="B71" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="B72" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="B73" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>129</v>
+      </c>
+      <c r="C73" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="B74" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>131</v>
+      </c>
+      <c r="C74" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="B75" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>133</v>
+      </c>
+      <c r="C75" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>86</v>
+        <v>135</v>
       </c>
       <c r="B76" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>135</v>
+      </c>
+      <c r="C76" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="B77" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/Translation Script/Map107.xlsx
+++ b/Translation Script/Map107.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
   <si>
     <t>自動実行</t>
   </si>
@@ -173,12 +173,9 @@
 ほら見て♥</t>
   </si>
   <si>
-    <t>\n&lt;Lily&gt;そんな物騒なもの置いて？
-ねぇ、私と気持ちいいことしましょう♥ほら見て♥</t>
-  </si>
-  <si>
     <t>\n&lt;Lily&gt;Why don't you put down that dangerous little thing?
-Hey, why don't you do something fun with me♥ Look here♥</t>
+Come on, just feel good with me instead♥ 
+Hora- Look♥</t>
   </si>
   <si>
     <t>ーーーーー待機or攻撃アニメ選択ーーーーー</t>
@@ -193,7 +190,7 @@
   </si>
   <si>
     <t>\n&lt;Lily&gt;Shake♥ Shake♥
-Ahaa♥
+Ahaha♥
 You looked♥</t>
   </si>
   <si>
@@ -202,9 +199,8 @@
 おちんちんにきちゃうでしょ♥</t>
   </si>
   <si>
-    <t>\n&lt;Lily&gt;At your level, even a simple tease
-like this will drive
-your dick insane♥</t>
+    <t>\n&lt;Lily&gt;At your level, even a little simple tease
+like this will drive your dick insane♥</t>
   </si>
   <si>
     <t>\n&lt;リリー&gt;ねぇ♥気持ちいい事しましょ？
@@ -220,8 +216,8 @@
 くすくす♥</t>
   </si>
   <si>
-    <t>\n&lt;Lily&gt;The only weapon you can hold is the one attached to your crotch♥
-There's no way to defeat a succubus, right?
+    <t>\n&lt;Lily&gt;But the weapon you should be holding is the one attached to your crotch♥
+That's the only way to defeat a succubus, right?
 Heehee♥</t>
   </si>
   <si>
@@ -233,16 +229,16 @@
 ほら♥それなら大丈夫でしょ？くす♥</t>
   </si>
   <si>
-    <t>\n&lt;Lily&gt;It's nice, no? If you're so scared of a
+    <t>\n&lt;Lily&gt;Are you sure? If you're so scared of a
 succubus sucking you dry, why not just pleasure yourself?
-Hora♥ That would be fine, wouldn't it? Hee♥</t>
+Hora♥ That would be fine, wouldn't it? Ufufu♥</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;あはっ♥その気になってくれたぁ？
 じゃあ私のこと見ながらオナニーして見せて♥</t>
   </si>
   <si>
-    <t>\n&lt;\n[3]&gt;Ahaa♥ Does that sound like fun? Then look closely,
+    <t>\n&lt;\n[3]&gt;Aha♥ Does that sound like fun? Then look closely,
 and show me how you masturbate♥</t>
   </si>
   <si>
@@ -254,7 +250,7 @@
 あんたそれでもハンターなの？</t>
   </si>
   <si>
-    <t>\ n&lt;\n[3]&gt; Heehee ♥ 
+    <t>\n&lt;\n[3]&gt; Heehee ♥ 
 Just a little teasing made you react like that?
 Can you even call yourself a hunter anymore?</t>
   </si>
@@ -274,14 +270,9 @@
 雑魚ハンターさん♥</t>
   </si>
   <si>
-    <t>\n&lt;\n[3]&gt;I hope you like it. 
-Show me more♥
- Little succubus hunter♥</t>
-  </si>
-  <si>
-    <t>\n&lt;\n[3]&gt;I hope you like it. 
-Show me more♥
-Little succubus hunter♥</t>
+    <t>\n&lt;\n[3]&gt;Well, do as you please.
+Try and resist as much as you can, OK?♥
+My little succubus hunter♥</t>
   </si>
   <si>
     <t>果物ナイフが置いてある・・・
@@ -379,7 +370,7 @@
     <t>調味料・・・</t>
   </si>
   <si>
-    <t>Spices…</t>
+    <t>Spices...</t>
   </si>
   <si>
     <t>\n&lt;\n[1]&gt;（淫魔にコショウをかけてくしゃみをしている間に・・・）</t>
@@ -400,8 +391,9 @@
 少々とか適量とか、それが分からないからレシピを見ているのに。）</t>
   </si>
   <si>
-    <t>\n&lt;\n[1]&gt;（I'm no good at cooking...
-I never know if I'm using too much or too litte, \nI'm always looking back at the recipe.）</t>
+    <t>\n&lt;\n[1]&gt;(I'm no good at cooking...
+I never know if I'm using too much or too little,
+and I always end up looking back at the recipe.）</t>
   </si>
   <si>
     <t>麦・・・</t>
@@ -439,9 +431,9 @@
 いや、やめておこう。）</t>
   </si>
   <si>
-    <t>\n&lt;\n[1]&gt;（I could throw these like a frisbee...
+    <t>\n&lt;\n[1]&gt;(I could throw these like a frisbee...
 ...
-I'm gonna stop right there.）</t>
+Yeah, better not do that.）</t>
   </si>
   <si>
     <t>アイテム</t>
@@ -1105,527 +1097,503 @@
       <c r="B26" t="s">
         <v>43</v>
       </c>
-      <c r="C26" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" t="s">
         <v>47</v>
-      </c>
-      <c r="B29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" t="s">
         <v>49</v>
-      </c>
-      <c r="B30" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" t="s">
         <v>51</v>
       </c>
-      <c r="B31" t="s">
-        <v>52</v>
-      </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" t="s">
         <v>53</v>
-      </c>
-      <c r="B32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B34" t="s">
         <v>56</v>
       </c>
-      <c r="C34" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s">
         <v>58</v>
       </c>
-      <c r="C35" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" t="s">
         <v>61</v>
-      </c>
-      <c r="B37" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" t="s">
         <v>63</v>
-      </c>
-      <c r="B38" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" t="s">
         <v>65</v>
-      </c>
-      <c r="B39" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C41" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C42" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B43" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C43" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C44" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C46" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B47" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C47" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B48" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C48" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C49" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B50" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B51" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C51" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B52" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C52" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B53" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C53" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B54" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C54" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B55" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C55" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B56" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B57" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C57" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B58" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C58" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B59" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C59" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B60" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C60" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B61" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C61" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B62" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C62" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B63" t="s">
-        <v>112</v>
-      </c>
-      <c r="C63" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B64" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B65" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C65" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B66" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C66" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B67" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C67" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B68" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C68" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B69" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C69" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B70" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C70" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B71" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B72" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B73" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C73" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B74" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C74" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B75" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C75" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B76" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C76" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B77" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
